--- a/2.3A - 4 - ver2.xlsx
+++ b/2.3A - 4 - ver2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38A2B3-A673-4D66-89CC-CA858112A492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E815D6-B916-4791-B9A3-025F3EE6D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -593,7 +599,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,6 +1386,11 @@
     <mergeCell ref="N12:N21"/>
     <mergeCell ref="N22:N23"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:H15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/2.3A - 4 - ver2.xlsx
+++ b/2.3A - 4 - ver2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsm44\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E815D6-B916-4791-B9A3-025F3EE6D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE431D8E-1789-4151-BF7D-CEF99C052E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,22 @@
     <sheet name="EXERCICIO4 - 2.3A" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$18:$H$18</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$H$19</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$18:$E$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$18:$E$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$18:$H$18</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$F$18</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$18</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$18</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$18</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$H$18</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$E$19</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$E$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$H$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$F$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$H$19</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -38,12 +39,13 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$I$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
@@ -53,6 +55,7 @@
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$3:$K$6</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$17</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$11:$K$14</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$8</definedName>
@@ -77,12 +80,45 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -199,6 +235,9 @@
   </si>
   <si>
     <t>N. MIN LV</t>
+  </si>
+  <si>
+    <t>AREA MAX S DA</t>
   </si>
 </sst>
 </file>
@@ -300,9 +339,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -310,11 +346,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -596,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,740 +697,802 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>20</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>-10</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>15</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>-7</v>
       </c>
-      <c r="I2" s="10">
-        <f t="array" ref="I2:I17">MMULT(B2:H17,TRANSPOSE(B18:H18))</f>
-        <v>7206</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="N2" s="11" t="s">
+      <c r="I2" s="9" cm="1">
+        <f t="array" ref="I2:I18">MMULT(B2:H18,TRANSPOSE(B19:H19))</f>
+        <v>8577</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="N2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="11"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>122</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>121</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>100</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="11"/>
       <c r="R3">
-        <f>COUNT($B$18:$H$18)</f>
+        <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>136</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>140</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>125</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="11"/>
       <c r="R4" t="b">
-        <f t="array" ref="R4">$B$18:$E$18&lt;=$K$11:$K$14</f>
+        <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>158</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>223</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>75</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="11"/>
       <c r="R5" t="b">
-        <f t="array" ref="R5">$B$18:$E$18&gt;=$K$3:$K$6</f>
+        <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>303</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>313</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>300</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="11"/>
       <c r="R6" t="b">
-        <f t="array" ref="R6">$B$18:$H$18=INT($B$18:$H$18)</f>
+        <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>25</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11"/>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" t="b">
-        <f>$F$18=$K$8</f>
+        <f>$F$19=$K$8</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>33</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <f>(1.3*$B$18+1.2*$C$18+0.5*$D$18+1.4*$E$18)/25</f>
-        <v>33</v>
-      </c>
-      <c r="N8" s="11"/>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>35</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
+        <v>35</v>
+      </c>
+      <c r="N8" s="10"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="11"/>
       <c r="R8" t="b">
-        <f>$G$18&lt;=$K$15</f>
+        <f>$G$19&lt;=$K$15</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>25</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <f>0.023*B18+0.034*C18+0.046*D18+0.034*E18</f>
+      <c r="J9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="11"/>
       <c r="R9" t="b">
-        <f>$G$18=$K$9</f>
+        <f>$G$19=$K$9</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
-        <f>$G$18&gt;=$K$7</f>
+        <f>$G$19&gt;=$K$7</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>122</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>121</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
-        <f>$H$18&lt;=$K$10</f>
+        <f>$H$19&lt;=$K$10</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>136</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>140</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>190</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
       <c r="R12" t="b">
-        <f>$K$17&lt;=$K$16</f>
+        <f>$I$16&lt;=$K$16</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>158</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>223</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>260</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="3"/>
-      <c r="R13">
+      <c r="R13" t="b">
+        <f>$K$18&lt;=$K$17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>313</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6">
+        <v>600</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="3"/>
+      <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
         <v>32767</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>303</v>
-      </c>
-      <c r="J14" s="7" t="s">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="7">
-        <v>600</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="3"/>
-      <c r="R14">
+      <c r="K15" s="6">
+        <v>25</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="3"/>
+      <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1.575</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="9">
+        <v>34.44</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="6">
+        <f>0.85*(50+(H19*H17))</f>
+        <v>42.5</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>34.44</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
+        <v>34.44</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>121</v>
+      </c>
+      <c r="C19" s="6">
+        <v>140</v>
+      </c>
+      <c r="D19" s="6">
+        <v>223</v>
+      </c>
+      <c r="E19" s="6">
+        <v>313</v>
+      </c>
+      <c r="F19" s="6">
+        <v>35</v>
+      </c>
+      <c r="G19" s="6">
         <v>25</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7">
-        <v>25</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="I16" s="10">
-        <v>31.919999999999998</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7">
-        <f>0.85*(50+(H18*H16))</f>
-        <v>42.5</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>31.919999999999998</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <f>B17*B18+C17*C18+D17*D18+E17*E18+F17*F18+G17*G18</f>
-        <v>31.919999999999998</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>122</v>
-      </c>
-      <c r="C18" s="7">
-        <v>136</v>
-      </c>
-      <c r="D18" s="7">
-        <v>158</v>
-      </c>
-      <c r="E18" s="7">
-        <v>303</v>
-      </c>
-      <c r="F18" s="7">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7">
-        <v>25</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N19" s="11"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="11"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="11"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="10"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="11" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="10"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N23" s="11"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
     <mergeCell ref="N2:N11"/>
-    <mergeCell ref="N12:N21"/>
-    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N12:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/2.3A - 4 - ver2.xlsx
+++ b/2.3A - 4 - ver2.xlsx
@@ -5,33 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsm44\Desktop\trabalhoPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE431D8E-1789-4151-BF7D-CEF99C052E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4622489-2B64-4BB9-99C2-B86524266534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EXERCICIO4 - 2.3A" sheetId="3" r:id="rId1"/>
+    <sheet name="2.3A" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$H$19</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A'!$B$19:$H$19</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$E$19</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$E$19</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$B$19:$H$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$F$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$19</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$19</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$G$19</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$H$19</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$I$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A'!$K$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3A'!$B$19:$H$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3A'!$F$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3A'!$H$19</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -41,7 +41,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$I$2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A'!$I$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
@@ -54,16 +54,16 @@
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$3:$K$6</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$11:$K$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A'!$K$3:$K$6</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A'!$K$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A'!$K$11:$K$14</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$8</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$15</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$9</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$7</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$10</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'EXERCICIO4 - 2.3A'!$K$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3A'!$K$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3A'!$K$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3A'!$K$9</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3A'!$K$7</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3A'!$K$10</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3A'!$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -80,30 +80,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -353,12 +342,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -642,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,11 +1471,6 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:H15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:H16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
